--- a/sca-api/scripts/initialize/data/init.xlsx
+++ b/sca-api/scripts/initialize/data/init.xlsx
@@ -1,37 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ktianc\programming\project\kinit-pro\kinit-api\scripts\initialize\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F03963-B92D-4400-A571-635978E5B7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="887" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="13380" tabRatio="887" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
-    <sheet name="vadmin_auth_role" sheetId="2" r:id="rId2"/>
-    <sheet name="vadmin_auth_user" sheetId="3" r:id="rId3"/>
-    <sheet name="vadmin_auth_user_roles" sheetId="9" r:id="rId4"/>
-    <sheet name="vadmin_system_dict_type" sheetId="5" r:id="rId5"/>
-    <sheet name="vadmin_system_dict_details" sheetId="6" r:id="rId6"/>
-    <sheet name="vadmin_system_settings_tab" sheetId="8" r:id="rId7"/>
-    <sheet name="vadmin_system_settings" sheetId="7" r:id="rId8"/>
-    <sheet name="vadmin_help_issue_category" sheetId="10" r:id="rId9"/>
-    <sheet name="vadmin_help_issue" sheetId="11" r:id="rId10"/>
-    <sheet name="vadmin_auth_dept" sheetId="12" r:id="rId11"/>
-    <sheet name="vadmin_auth_user_depts" sheetId="13" r:id="rId12"/>
+    <sheet name="auth_menu" sheetId="1" r:id="rId1"/>
+    <sheet name="auth_role" sheetId="2" r:id="rId2"/>
+    <sheet name="auth_user" sheetId="3" r:id="rId3"/>
+    <sheet name="auth_user_roles" sheetId="9" r:id="rId4"/>
+    <sheet name="system_dict_type" sheetId="5" r:id="rId5"/>
+    <sheet name="system_dict_details" sheetId="6" r:id="rId6"/>
+    <sheet name="system_settings_tab" sheetId="8" r:id="rId7"/>
+    <sheet name="system_settings" sheetId="7" r:id="rId8"/>
+    <sheet name="help_issue_category" sheetId="10" r:id="rId9"/>
+    <sheet name="help_issue" sheetId="11" r:id="rId10"/>
+    <sheet name="auth_dept" sheetId="12" r:id="rId11"/>
+    <sheet name="auth_user_depts" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="349">
   <si>
     <t>title</t>
   </si>
@@ -153,6 +160,9 @@
     <t>数据概览</t>
   </si>
   <si>
+    <t>views/Dashboard/Analysis/Analysis</t>
+  </si>
+  <si>
     <t>analysis</t>
   </si>
   <si>
@@ -168,45 +178,72 @@
     <t>菜单管理</t>
   </si>
   <si>
+    <t>views/Vadmin/Auth/Menu/Menu</t>
+  </si>
+  <si>
     <t>menu</t>
   </si>
   <si>
     <t>角色管理</t>
   </si>
   <si>
+    <t>views/Vadmin/Auth/Role/Role</t>
+  </si>
+  <si>
     <t>role</t>
   </si>
   <si>
     <t>用户管理</t>
   </si>
   <si>
+    <t>views/Vadmin/Auth/User/User</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
     <t>字典配置</t>
   </si>
   <si>
+    <t>views/Vadmin/System/Dict/Dict</t>
+  </si>
+  <si>
     <t>dict</t>
   </si>
   <si>
     <t>日志管理</t>
   </si>
   <si>
+    <t>tdesign:catalog</t>
+  </si>
+  <si>
+    <t>/record</t>
+  </si>
+  <si>
     <t>系统配置</t>
   </si>
   <si>
+    <t>views/Vadmin/System/Settings/Settings</t>
+  </si>
+  <si>
     <t>settings</t>
   </si>
   <si>
     <t>登录日志</t>
   </si>
   <si>
+    <t>views/Vadmin/System/Record/Login/Login</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
     <t>操作日志</t>
   </si>
   <si>
+    <t>views/Vadmin/System/Record/Operation/Operation</t>
+  </si>
+  <si>
     <t>operation</t>
   </si>
   <si>
@@ -297,18 +334,27 @@
     <t>常见问题类别</t>
   </si>
   <si>
+    <t>views/Vadmin/Help/IssueCategory/IssueCategory</t>
+  </si>
+  <si>
     <t>issue/category</t>
   </si>
   <si>
     <t>常见问题</t>
   </si>
   <si>
+    <t>views/Vadmin/Help/Issue/Issue</t>
+  </si>
+  <si>
     <t>issue</t>
   </si>
   <si>
     <t>常见问题表单</t>
   </si>
   <si>
+    <t>views/Vadmin/Help/Issue/components/Write</t>
+  </si>
+  <si>
     <t>issue/form</t>
   </si>
   <si>
@@ -327,18 +373,27 @@
     <t>空气质量</t>
   </si>
   <si>
+    <t>views/Vadmin/Screen/Air/Air</t>
+  </si>
+  <si>
     <t>air</t>
   </si>
   <si>
     <t>定时任务</t>
   </si>
   <si>
+    <t>views/Vadmin/System/Task/Task</t>
+  </si>
+  <si>
     <t>task</t>
   </si>
   <si>
     <t>调度日志</t>
   </si>
   <si>
+    <t>views/Vadmin/System/Record/Task/Task</t>
+  </si>
+  <si>
     <t>获取菜单列表</t>
   </si>
   <si>
@@ -369,9 +424,21 @@
     <t>图片资源</t>
   </si>
   <si>
+    <t>views/Vadmin/Resource/Image/Image</t>
+  </si>
+  <si>
     <t>images</t>
   </si>
   <si>
+    <t>部门管理</t>
+  </si>
+  <si>
+    <t>views/Vadmin/Auth/Dept/Dept</t>
+  </si>
+  <si>
+    <t>dept</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -384,24 +451,30 @@
     <t>is_admin</t>
   </si>
   <si>
+    <t>data_range</t>
+  </si>
+  <si>
     <t>管理员</t>
   </si>
   <si>
     <t>admin</t>
   </si>
   <si>
+    <t>avatar</t>
+  </si>
+  <si>
     <t>telephone</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>nickname</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>avatar</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
@@ -418,6 +491,12 @@
   </si>
   <si>
     <t>is_staff</t>
+  </si>
+  <si>
+    <t>wx_server_openid</t>
+  </si>
+  <si>
+    <t>is_wx_server_openid</t>
   </si>
   <si>
     <t>15020221010</t>
@@ -436,7 +515,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>u</t>
     </r>
@@ -444,7 +523,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ser_id</t>
     </r>
@@ -454,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>r</t>
     </r>
@@ -462,7 +541,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ole_id</t>
     </r>
@@ -510,18 +589,24 @@
     <t>与定时任务中有约定，请勿随意更改</t>
   </si>
   <si>
+    <t>数据权限范围</t>
+  </si>
+  <si>
+    <t>sys_vadmin_data_range</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t>is_default</t>
   </si>
   <si>
     <t>dict_type_id</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>男</t>
   </si>
   <si>
@@ -568,6 +653,27 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>仅本人数据权限</t>
+  </si>
+  <si>
+    <t>本部门数据权限</t>
+  </si>
+  <si>
+    <t>本部门及以下数据权限</t>
+  </si>
+  <si>
+    <t>自定义数据权限</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>全部数据权限</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>tab_label</t>
@@ -991,51 +1097,6 @@
     <t>&lt;p&gt;请点击[我的] - [应用设置] - [修改密码]即可修改登录密码&lt;/p&gt;</t>
   </si>
   <si>
-    <t>views/Dashboard/Analysis/Analysis</t>
-  </si>
-  <si>
-    <t>views/Vadmin/Auth/Menu/Menu</t>
-  </si>
-  <si>
-    <t>views/Vadmin/Auth/Role/Role</t>
-  </si>
-  <si>
-    <t>views/Vadmin/Auth/User/User</t>
-  </si>
-  <si>
-    <t>views/Vadmin/System/Dict/Dict</t>
-  </si>
-  <si>
-    <t>views/Vadmin/System/Settings/Settings</t>
-  </si>
-  <si>
-    <t>views/Vadmin/System/Record/Login/Login</t>
-  </si>
-  <si>
-    <t>views/Vadmin/System/Record/Operation/Operation</t>
-  </si>
-  <si>
-    <t>views/Vadmin/Help/IssueCategory/IssueCategory</t>
-  </si>
-  <si>
-    <t>views/Vadmin/Help/Issue/Issue</t>
-  </si>
-  <si>
-    <t>views/Vadmin/Help/Issue/components/Write</t>
-  </si>
-  <si>
-    <t>views/Vadmin/Screen/Air/Air</t>
-  </si>
-  <si>
-    <t>views/Vadmin/System/Task/Task</t>
-  </si>
-  <si>
-    <t>views/Vadmin/System/Record/Task/Task</t>
-  </si>
-  <si>
-    <t>views/Vadmin/Resource/Image/Image</t>
-  </si>
-  <si>
     <t>dept_key</t>
   </si>
   <si>
@@ -1045,9 +1106,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>kinit 开发团队</t>
   </si>
   <si>
@@ -1058,71 +1116,20 @@
   </si>
   <si>
     <t>dept_id</t>
-  </si>
-  <si>
-    <t>tdesign:catalog</t>
-  </si>
-  <si>
-    <t>/record</t>
-  </si>
-  <si>
-    <t>部门管理</t>
-  </si>
-  <si>
-    <t>views/Vadmin/Auth/Dept/Dept</t>
-  </si>
-  <si>
-    <t>dept</t>
-  </si>
-  <si>
-    <t>data_range</t>
-  </si>
-  <si>
-    <t>wx_server_openid</t>
-  </si>
-  <si>
-    <t>is_wx_server_openid</t>
-  </si>
-  <si>
-    <t>数据权限范围</t>
-  </si>
-  <si>
-    <t>sys_vadmin_data_range</t>
-  </si>
-  <si>
-    <t>仅本人数据权限</t>
-  </si>
-  <si>
-    <t>本部门数据权限</t>
-  </si>
-  <si>
-    <t>本部门及以下数据权限</t>
-  </si>
-  <si>
-    <t>自定义数据权限</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>全部数据权限</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>系统配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1143,30 +1150,343 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1174,34 +1494,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1459,19 +2060,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
@@ -1591,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>44786.455925925926</v>
+        <v>44786.4559259259</v>
       </c>
       <c r="T2" s="1">
-        <v>45204.098263888889</v>
+        <v>45204.0982638889</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1650,10 +2251,10 @@
         <v>2</v>
       </c>
       <c r="S3" s="1">
-        <v>44826.954074074078</v>
+        <v>44826.9540740741</v>
       </c>
       <c r="T3" s="1">
-        <v>45204.099050925928</v>
+        <v>45204.0990509259</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1706,10 +2307,10 @@
         <v>3</v>
       </c>
       <c r="S4" s="1">
-        <v>44838.873819444445</v>
+        <v>44838.8738194444</v>
       </c>
       <c r="T4" s="1">
-        <v>44862.894594907404</v>
+        <v>44862.8945949074</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1762,10 +2363,10 @@
         <v>4</v>
       </c>
       <c r="S5" s="1">
-        <v>44846.707951388889</v>
+        <v>44846.7079513889</v>
       </c>
       <c r="T5" s="1">
-        <v>44883.434432870366</v>
+        <v>44883.4344328704</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1776,10 +2377,10 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1818,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="S6" s="1">
-        <v>44870.538877314815</v>
+        <v>44870.5388773148</v>
       </c>
       <c r="T6" s="1">
-        <v>45183.673703703702</v>
+        <v>45183.6737037037</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1829,13 +2430,13 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1874,10 +2475,10 @@
         <v>6</v>
       </c>
       <c r="S7" s="1">
-        <v>44881.777280092596</v>
+        <v>44881.7772800926</v>
       </c>
       <c r="T7" s="1">
-        <v>44882.864988425928</v>
+        <v>44882.8649884259</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1885,13 +2486,13 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1930,10 +2531,10 @@
         <v>7</v>
       </c>
       <c r="S8" s="1">
-        <v>44826.723263888889</v>
+        <v>44826.7232638889</v>
       </c>
       <c r="T8" s="1">
-        <v>44883.435208333329</v>
+        <v>44883.4352083333</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1941,13 +2542,13 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1986,10 +2587,10 @@
         <v>8</v>
       </c>
       <c r="S9" s="1">
-        <v>44826.723263888889</v>
+        <v>44826.7232638889</v>
       </c>
       <c r="T9" s="1">
-        <v>44883.435370370367</v>
+        <v>44883.4353703704</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1997,13 +2598,13 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2042,10 +2643,10 @@
         <v>9</v>
       </c>
       <c r="S10" s="1">
-        <v>44826.723263888889</v>
+        <v>44826.7232638889</v>
       </c>
       <c r="T10" s="1">
-        <v>45180.683761574073</v>
+        <v>45180.6837615741</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2053,13 +2654,13 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2098,10 +2699,10 @@
         <v>10</v>
       </c>
       <c r="S11" s="1">
-        <v>44838.877025462964</v>
+        <v>44838.877025463</v>
       </c>
       <c r="T11" s="1">
-        <v>45181.630150462966</v>
+        <v>45181.630150463</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2109,16 +2710,16 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>333</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2154,10 +2755,10 @@
         <v>13</v>
       </c>
       <c r="S12" s="1">
-        <v>44862.895787037036</v>
+        <v>44862.895787037</v>
       </c>
       <c r="T12" s="1">
-        <v>45204.15283564815</v>
+        <v>45204.1528356482</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2165,13 +2766,13 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>314</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2210,10 +2811,10 @@
         <v>14</v>
       </c>
       <c r="S13" s="1">
-        <v>44864.733217592591</v>
+        <v>44864.7332175926</v>
       </c>
       <c r="T13" s="1">
-        <v>44864.733217592591</v>
+        <v>44864.7332175926</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2221,13 +2822,13 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>315</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2266,10 +2867,10 @@
         <v>15</v>
       </c>
       <c r="S14" s="1">
-        <v>44862.899155092593</v>
+        <v>44862.8991550926</v>
       </c>
       <c r="T14" s="1">
-        <v>44862.900057870371</v>
+        <v>44862.9000578704</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2277,13 +2878,13 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>316</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2322,10 +2923,10 @@
         <v>16</v>
       </c>
       <c r="S15" s="1">
-        <v>44862.925173611104</v>
+        <v>44862.9251736111</v>
       </c>
       <c r="T15" s="1">
-        <v>44863.569282407407</v>
+        <v>44863.5692824074</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2333,7 +2934,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2345,13 +2946,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J16">
         <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2375,10 +2976,10 @@
         <v>17</v>
       </c>
       <c r="S16" s="1">
-        <v>44883.598217592589</v>
+        <v>44883.5982175926</v>
       </c>
       <c r="T16" s="1">
-        <v>44883.604062500002</v>
+        <v>44883.6040625</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2386,7 +2987,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2398,13 +2999,13 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J17">
         <v>7</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2428,10 +3029,10 @@
         <v>18</v>
       </c>
       <c r="S17" s="1">
-        <v>44883.641030092593</v>
+        <v>44883.6410300926</v>
       </c>
       <c r="T17" s="1">
-        <v>44883.641030092593</v>
+        <v>44883.6410300926</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2439,7 +3040,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2451,13 +3052,13 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J18">
         <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2481,10 +3082,10 @@
         <v>19</v>
       </c>
       <c r="S18" s="1">
-        <v>44883.641284722224</v>
+        <v>44883.6412847222</v>
       </c>
       <c r="T18" s="1">
-        <v>44883.641284722224</v>
+        <v>44883.6412847222</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2492,7 +3093,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2504,13 +3105,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J19">
         <v>8</v>
       </c>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2534,10 +3135,10 @@
         <v>20</v>
       </c>
       <c r="S19" s="1">
-        <v>44883.633275462969</v>
+        <v>44883.633275463</v>
       </c>
       <c r="T19" s="1">
-        <v>44883.633275462969</v>
+        <v>44883.633275463</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2545,7 +3146,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2557,13 +3158,13 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J20">
         <v>8</v>
       </c>
       <c r="K20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2587,10 +3188,10 @@
         <v>21</v>
       </c>
       <c r="S20" s="1">
-        <v>44883.64162037037</v>
+        <v>44883.6416203704</v>
       </c>
       <c r="T20" s="1">
-        <v>44883.64162037037</v>
+        <v>44883.6416203704</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2598,7 +3199,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2610,13 +3211,13 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J21">
         <v>8</v>
       </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2640,10 +3241,10 @@
         <v>22</v>
       </c>
       <c r="S21" s="1">
-        <v>44883.641793981486</v>
+        <v>44883.6417939815</v>
       </c>
       <c r="T21" s="1">
-        <v>45162.653738425921</v>
+        <v>45162.6537384259</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2651,7 +3252,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2663,13 +3264,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J22">
         <v>9</v>
       </c>
       <c r="K22" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2693,10 +3294,10 @@
         <v>23</v>
       </c>
       <c r="S22" s="1">
-        <v>44883.643275462964</v>
+        <v>44883.643275463</v>
       </c>
       <c r="T22" s="1">
-        <v>44883.646527777775</v>
+        <v>44883.6465277778</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2704,7 +3305,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2716,13 +3317,13 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J23">
         <v>9</v>
       </c>
       <c r="K23" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2746,10 +3347,10 @@
         <v>24</v>
       </c>
       <c r="S23" s="1">
-        <v>44883.643530092595</v>
+        <v>44883.6435300926</v>
       </c>
       <c r="T23" s="1">
-        <v>44883.643530092595</v>
+        <v>44883.6435300926</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2757,7 +3358,7 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2769,13 +3370,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J24">
         <v>9</v>
       </c>
       <c r="K24" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2799,10 +3400,10 @@
         <v>25</v>
       </c>
       <c r="S24" s="1">
-        <v>44883.643819444449</v>
+        <v>44883.6438194444</v>
       </c>
       <c r="T24" s="1">
-        <v>44883.643819444449</v>
+        <v>44883.6438194444</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2810,7 +3411,7 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2822,13 +3423,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J25">
         <v>9</v>
       </c>
       <c r="K25" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2852,10 +3453,10 @@
         <v>26</v>
       </c>
       <c r="S25" s="1">
-        <v>44883.644166666672</v>
+        <v>44883.6441666667</v>
       </c>
       <c r="T25" s="1">
-        <v>44883.644166666672</v>
+        <v>44883.6441666667</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2863,7 +3464,7 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2875,13 +3476,13 @@
         <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J26">
         <v>9</v>
       </c>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2905,10 +3506,10 @@
         <v>27</v>
       </c>
       <c r="S26" s="1">
-        <v>44883.64438657408</v>
+        <v>44883.6443865741</v>
       </c>
       <c r="T26" s="1">
-        <v>44883.64438657408</v>
+        <v>44883.6443865741</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2916,7 +3517,7 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2928,13 +3529,13 @@
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J27">
         <v>9</v>
       </c>
       <c r="K27" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2958,10 +3559,10 @@
         <v>28</v>
       </c>
       <c r="S27" s="1">
-        <v>44883.644884259258</v>
+        <v>44883.6448842593</v>
       </c>
       <c r="T27" s="1">
-        <v>44883.644884259258</v>
+        <v>44883.6448842593</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2969,16 +3570,16 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3014,10 +3615,10 @@
         <v>38</v>
       </c>
       <c r="S28" s="1">
-        <v>44973.689618055556</v>
+        <v>44973.6896180556</v>
       </c>
       <c r="T28" s="1">
-        <v>44973.690972222219</v>
+        <v>44973.6909722222</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3025,13 +3626,13 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3070,10 +3671,10 @@
         <v>39</v>
       </c>
       <c r="S29" s="1">
-        <v>44973.690277777772</v>
+        <v>44973.6902777778</v>
       </c>
       <c r="T29" s="1">
-        <v>45180.522291666668</v>
+        <v>45180.5222916667</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3081,13 +3682,13 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>318</v>
+        <v>101</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3126,10 +3727,10 @@
         <v>40</v>
       </c>
       <c r="S30" s="1">
-        <v>44973.717280092591</v>
+        <v>44973.7172800926</v>
       </c>
       <c r="T30" s="1">
-        <v>45180.522523148145</v>
+        <v>45180.5225231481</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3137,13 +3738,13 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>319</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3182,10 +3783,10 @@
         <v>42</v>
       </c>
       <c r="S31" s="1">
-        <v>44978.987083333333</v>
+        <v>44978.9870833333</v>
       </c>
       <c r="T31" s="1">
-        <v>45180.522719907407</v>
+        <v>45180.5227199074</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3193,16 +3794,16 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3238,10 +3839,10 @@
         <v>68</v>
       </c>
       <c r="S32" s="1">
-        <v>44889.630127314813</v>
+        <v>44889.6301273148</v>
       </c>
       <c r="T32" s="1">
-        <v>44889.641284722224</v>
+        <v>44889.6412847222</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3249,13 +3850,13 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>320</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -3294,10 +3895,10 @@
         <v>69</v>
       </c>
       <c r="S33" s="1">
-        <v>44889.630659722228</v>
+        <v>44889.6306597222</v>
       </c>
       <c r="T33" s="1">
-        <v>45187.411562499998</v>
+        <v>45187.4115625</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3305,13 +3906,13 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>321</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3350,10 +3951,10 @@
         <v>73</v>
       </c>
       <c r="S34" s="1">
-        <v>45102.614305555559</v>
+        <v>45102.6143055556</v>
       </c>
       <c r="T34" s="1">
-        <v>45187.657708333332</v>
+        <v>45187.6577083333</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3361,13 +3962,13 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>322</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3406,10 +4007,10 @@
         <v>74</v>
       </c>
       <c r="S35" s="1">
-        <v>45105.454143518517</v>
+        <v>45105.4541435185</v>
       </c>
       <c r="T35" s="1">
-        <v>45182.723865740743</v>
+        <v>45182.7238657407</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3417,7 +4018,7 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3429,13 +4030,13 @@
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J36">
         <v>7</v>
       </c>
       <c r="K36" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3459,10 +4060,10 @@
         <v>76</v>
       </c>
       <c r="S36" s="1">
-        <v>45162.653043981481</v>
+        <v>45162.6530439815</v>
       </c>
       <c r="T36" s="1">
-        <v>45162.653043981481</v>
+        <v>45162.6530439815</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3470,7 +4071,7 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3482,13 +4083,13 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J37">
         <v>8</v>
       </c>
       <c r="K37" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3512,10 +4113,10 @@
         <v>77</v>
       </c>
       <c r="S37" s="1">
-        <v>45162.653321759266</v>
+        <v>45162.6533217593</v>
       </c>
       <c r="T37" s="1">
-        <v>45162.653321759266</v>
+        <v>45162.6533217593</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3523,7 +4124,7 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3535,13 +4136,13 @@
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J38">
         <v>9</v>
       </c>
       <c r="K38" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3565,10 +4166,10 @@
         <v>78</v>
       </c>
       <c r="S38" s="1">
-        <v>45162.653657407405</v>
+        <v>45162.6536574074</v>
       </c>
       <c r="T38" s="1">
-        <v>45162.653657407405</v>
+        <v>45162.6536574074</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3576,16 +4177,16 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3621,10 +4222,10 @@
         <v>79</v>
       </c>
       <c r="S39" s="1">
-        <v>45163.58084490741</v>
+        <v>45163.5808449074</v>
       </c>
       <c r="T39" s="1">
-        <v>45163.58084490741</v>
+        <v>45163.5808449074</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -3632,13 +4233,13 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>323</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -3677,10 +4278,10 @@
         <v>80</v>
       </c>
       <c r="S40" s="1">
-        <v>45163.581469907404</v>
+        <v>45163.5814699074</v>
       </c>
       <c r="T40" s="1">
-        <v>45183.466342592597</v>
+        <v>45183.4663425926</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3688,13 +4289,13 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>334</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>335</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3733,39 +4334,40 @@
         <v>81</v>
       </c>
       <c r="S41" s="1">
-        <v>45278.950706018521</v>
+        <v>45278.9507060185</v>
       </c>
       <c r="T41" s="1">
-        <v>45278.950706018521</v>
+        <v>45278.9507060185</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="2" max="3" width="18.859375" customWidth="1"/>
+    <col min="4" max="4" width="17.4296875" customWidth="1"/>
     <col min="7" max="7" width="52.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.2890625" customWidth="1"/>
+    <col min="9" max="9" width="14.2890625" customWidth="1"/>
+    <col min="10" max="10" width="9.2890625" customWidth="1"/>
+    <col min="11" max="11" width="15.2890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3785,22 +4387,22 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="I1" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K1" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3808,10 +4410,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>44984.657164351898</v>
+        <v>44984.6571643519</v>
       </c>
       <c r="C2" s="1">
-        <v>45142.737500000003</v>
+        <v>45142.7375</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3820,10 +4422,10 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3840,7 +4442,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>44984.657337962999</v>
+        <v>44984.657337963</v>
       </c>
       <c r="C3" s="1">
         <v>45142.7374305556</v>
@@ -3852,10 +4454,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="H3" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3872,10 +4474,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>44984.657453703701</v>
+        <v>44984.6574537037</v>
       </c>
       <c r="C4" s="1">
-        <v>45142.737453703703</v>
+        <v>45142.7374537037</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3884,10 +4486,10 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="H4" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3904,10 +4506,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>44984.657581018502</v>
+        <v>44984.6575810185</v>
       </c>
       <c r="C5" s="1">
-        <v>45142.737476851798</v>
+        <v>45142.7374768518</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3916,10 +4518,10 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="H5" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3936,10 +4538,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>44984.657719907402</v>
+        <v>44984.6577199074</v>
       </c>
       <c r="C6" s="1">
-        <v>45141.021805555603</v>
+        <v>45141.0218055556</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3948,10 +4550,10 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="H6" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3968,10 +4570,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>44984.657847222203</v>
+        <v>44984.6578472222</v>
       </c>
       <c r="C7" s="1">
-        <v>45129.748043981497</v>
+        <v>45129.7480439815</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3980,10 +4582,10 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="H7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4003,7 +4605,7 @@
         <v>44984.657962963</v>
       </c>
       <c r="C8" s="1">
-        <v>45142.737407407403</v>
+        <v>45142.7374074074</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4012,10 +4614,10 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="H8" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -4028,33 +4630,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355349EC-D151-4041-BE71-35E0B9FED49F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.2890625" customWidth="1"/>
+    <col min="2" max="2" width="12.2890625" customWidth="1"/>
+    <col min="11" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -4063,16 +4666,16 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="G1" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="H1" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
         <v>9</v>
@@ -4095,10 +4698,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4110,37 +4713,38 @@
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>45278.952164351846</v>
+        <v>45278.9521643518</v>
       </c>
       <c r="L2" s="1">
-        <v>45281.748402777775</v>
+        <v>45281.7484027778</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0766066A-E4AE-420C-89ED-591352846793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B1" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4152,28 +4756,32 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="120" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="120" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="8" max="9" width="17.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -4182,10 +4790,10 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -4203,15 +4811,15 @@
         <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>337</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4226,10 +4834,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>44786.457152777773</v>
+        <v>44786.4571527778</v>
       </c>
       <c r="I2" s="1">
-        <v>44843.627476851849</v>
+        <v>44843.6274768518</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -4239,63 +4847,64 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="L1" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="M1" t="s">
-        <v>338</v>
+        <v>151</v>
       </c>
       <c r="N1" t="s">
-        <v>339</v>
+        <v>152</v>
       </c>
       <c r="O1" t="s">
         <v>17</v>
@@ -4313,18 +4922,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="2:19">
       <c r="B2" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
@@ -4336,10 +4945,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="K2" s="1">
-        <v>45311.463958333341</v>
+        <v>45311.4639583333</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -4351,37 +4960,38 @@
         <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>44784.845185185193</v>
+        <v>44784.8451851852</v>
       </c>
       <c r="Q2" s="1">
-        <v>45311.463923611118</v>
+        <v>45311.4639236111</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="17" spans="1:2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4393,34 +5003,35 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -4440,10 +5051,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4452,10 +5063,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>44839.919247685182</v>
+        <v>44839.9192476852</v>
       </c>
       <c r="G2" s="1">
-        <v>44842.58143518518</v>
+        <v>44842.5814351852</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4463,10 +5074,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4475,10 +5086,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>44842.581620370365</v>
+        <v>44842.5816203704</v>
       </c>
       <c r="G3" s="1">
-        <v>44842.581620370365</v>
+        <v>44842.5816203704</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4486,10 +5097,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4498,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>44898.991770833338</v>
+        <v>44898.9917708333</v>
       </c>
       <c r="G4" s="1">
-        <v>44898.991770833338</v>
+        <v>44898.9917708333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4509,10 +5120,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4521,10 +5132,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="1">
-        <v>44898.992488425931</v>
+        <v>44898.9924884259</v>
       </c>
       <c r="G5" s="1">
-        <v>44898.992488425931</v>
+        <v>44898.9924884259</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4532,25 +5143,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>45102.705092592594</v>
+        <v>45102.7050925926</v>
       </c>
       <c r="G6" s="1">
-        <v>45107.39130787037</v>
+        <v>45107.3913078704</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4558,10 +5169,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>174</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4570,52 +5181,53 @@
         <v>6</v>
       </c>
       <c r="F7" s="1">
-        <v>45281.775648148148</v>
+        <v>45281.7756481481</v>
       </c>
       <c r="G7" s="1">
-        <v>45281.775648148148</v>
+        <v>45281.7756481481</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -4635,7 +5247,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -4656,10 +5268,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>44841.505358796298</v>
+        <v>44841.5053587963</v>
       </c>
       <c r="J2" s="1">
-        <v>44841.505578703705</v>
+        <v>44841.5055787037</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4667,7 +5279,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -4688,10 +5300,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="1">
-        <v>44842.580231481479</v>
+        <v>44842.5802314815</v>
       </c>
       <c r="J3" s="1">
-        <v>44842.580231481479</v>
+        <v>44842.5802314815</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -4699,7 +5311,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -4720,10 +5332,10 @@
         <v>5</v>
       </c>
       <c r="I4" s="1">
-        <v>44842.586979166663</v>
+        <v>44842.5869791667</v>
       </c>
       <c r="J4" s="1">
-        <v>44842.587245370371</v>
+        <v>44842.5872453704</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -4731,7 +5343,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -4752,10 +5364,10 @@
         <v>6</v>
       </c>
       <c r="I5" s="1">
-        <v>44842.587083333332</v>
+        <v>44842.5870833333</v>
       </c>
       <c r="J5" s="1">
-        <v>44842.587083333332</v>
+        <v>44842.5870833333</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4763,10 +5375,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4784,10 +5396,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="1">
-        <v>44842.587175925924</v>
+        <v>44842.5871759259</v>
       </c>
       <c r="J6" s="1">
-        <v>44842.587175925924</v>
+        <v>44842.5871759259</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -4795,7 +5407,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -4816,10 +5428,10 @@
         <v>8</v>
       </c>
       <c r="I7" s="1">
-        <v>44898.992048611115</v>
+        <v>44898.9920486111</v>
       </c>
       <c r="J7" s="1">
-        <v>44898.992048611115</v>
+        <v>44898.9920486111</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -4827,7 +5439,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
@@ -4848,10 +5460,10 @@
         <v>9</v>
       </c>
       <c r="I8" s="1">
-        <v>44898.992210648154</v>
+        <v>44898.9922106482</v>
       </c>
       <c r="J8" s="1">
-        <v>44898.992210648154</v>
+        <v>44898.9922106482</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -4859,7 +5471,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -4880,10 +5492,10 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>44898.992638888893</v>
+        <v>44898.9926388889</v>
       </c>
       <c r="J9" s="1">
-        <v>44898.992638888893</v>
+        <v>44898.9926388889</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4891,7 +5503,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -4912,10 +5524,10 @@
         <v>11</v>
       </c>
       <c r="I10" s="1">
-        <v>44898.992835648154</v>
+        <v>44898.9928356482</v>
       </c>
       <c r="J10" s="1">
-        <v>44898.992835648154</v>
+        <v>44898.9928356482</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4923,10 +5535,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -4944,10 +5556,10 @@
         <v>12</v>
       </c>
       <c r="I11" s="1">
-        <v>44980.950659722221</v>
+        <v>44980.9506597222</v>
       </c>
       <c r="J11" s="1">
-        <v>44980.953773148147</v>
+        <v>44980.9537731481</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4955,10 +5567,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4976,10 +5588,10 @@
         <v>14</v>
       </c>
       <c r="I12" s="1">
-        <v>45102.705671296295</v>
+        <v>45102.7056712963</v>
       </c>
       <c r="J12" s="1">
-        <v>45103.66128472222</v>
+        <v>45103.6612847222</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4987,10 +5599,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -5008,10 +5620,10 @@
         <v>15</v>
       </c>
       <c r="I13" s="1">
-        <v>45102.706574074073</v>
+        <v>45102.7065740741</v>
       </c>
       <c r="J13" s="1">
-        <v>45102.706574074073</v>
+        <v>45102.7065740741</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -5019,10 +5631,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -5040,10 +5652,10 @@
         <v>16</v>
       </c>
       <c r="I14" s="1">
-        <v>45102.706724537034</v>
+        <v>45102.706724537</v>
       </c>
       <c r="J14" s="1">
-        <v>45103.661400462966</v>
+        <v>45103.661400463</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -5051,7 +5663,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>342</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -5072,10 +5684,10 @@
         <v>17</v>
       </c>
       <c r="I15" s="1">
-        <v>45281.777569444443</v>
+        <v>45281.7775694444</v>
       </c>
       <c r="J15" s="1">
-        <v>45257.65048611111</v>
+        <v>45257.6504861111</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -5083,7 +5695,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>343</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
@@ -5104,10 +5716,10 @@
         <v>18</v>
       </c>
       <c r="I16" s="1">
-        <v>45281.777731481481</v>
+        <v>45281.7777314815</v>
       </c>
       <c r="J16" s="1">
-        <v>45257.651412037034</v>
+        <v>45257.651412037</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -5115,10 +5727,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>344</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -5136,10 +5748,10 @@
         <v>19</v>
       </c>
       <c r="I17" s="1">
-        <v>45281.777847222227</v>
+        <v>45281.7778472222</v>
       </c>
       <c r="J17" s="1">
-        <v>45257.651539351849</v>
+        <v>45257.6515393518</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -5147,10 +5759,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>199</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -5168,10 +5780,10 @@
         <v>20</v>
       </c>
       <c r="I18" s="1">
-        <v>45281.777951388889</v>
+        <v>45281.7779513889</v>
       </c>
       <c r="J18" s="1">
-        <v>45257.651597222219</v>
+        <v>45257.6515972222</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -5179,10 +5791,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>347</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>201</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5200,38 +5812,39 @@
         <v>21</v>
       </c>
       <c r="I19" s="1">
-        <v>45281.778078703705</v>
+        <v>45281.7780787037</v>
       </c>
       <c r="J19" s="1">
-        <v>45257.651655092588</v>
+        <v>45257.6516550926</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.4296875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.2890625" customWidth="1"/>
     <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.859375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5251,16 +5864,16 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -5274,25 +5887,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C2" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="I2" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -5306,25 +5919,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C3" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -5338,25 +5951,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C4" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -5370,25 +5983,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C5" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="I5" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5402,25 +6015,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="C6" s="1">
-        <v>44865.828298611101</v>
+        <v>44865.8282986111</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5434,25 +6047,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44873.393229166701</v>
+        <v>44873.3932291667</v>
       </c>
       <c r="C7" s="1">
-        <v>44873.393229166701</v>
+        <v>44873.3932291667</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="I7" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -5466,25 +6079,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44873.393449074101</v>
+        <v>44873.3934490741</v>
       </c>
       <c r="C8" s="1">
-        <v>44873.393449074101</v>
+        <v>44873.3934490741</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="I8" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -5498,25 +6111,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44882.803460648101</v>
+        <v>44882.8034606481</v>
       </c>
       <c r="C9" s="1">
-        <v>44882.803460648101</v>
+        <v>44882.8034606481</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -5530,25 +6143,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44971.953680555598</v>
+        <v>44971.9536805556</v>
       </c>
       <c r="C10" s="1">
-        <v>44971.953680555598</v>
+        <v>44971.9536805556</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="I10" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -5562,25 +6175,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44971.953680555598</v>
+        <v>44971.9536805556</v>
       </c>
       <c r="C11" s="1">
-        <v>44971.953680555598</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>349</v>
+        <v>44971.9536805556</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="I11" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5590,26 +6203,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="120" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="120" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="3" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="67.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.859375" customWidth="1"/>
+    <col min="7" max="7" width="67.859375" customWidth="1"/>
     <col min="8" max="8" width="98" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5627,19 +6241,19 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="G1" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -5656,16 +6270,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C2" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5685,16 +6299,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C3" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5714,16 +6328,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C4" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5743,16 +6357,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C5" s="1">
-        <v>44942.757025462997</v>
+        <v>44942.757025463</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5772,16 +6386,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C6" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="G6" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5801,16 +6415,16 @@
         <v>44865.8664699074</v>
       </c>
       <c r="C7" s="1">
-        <v>44984.400081018503</v>
+        <v>44984.4000810185</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="G7" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5827,19 +6441,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44865.868032407401</v>
+        <v>44865.8680324074</v>
       </c>
       <c r="C8" s="1">
-        <v>44887.691469907397</v>
+        <v>44887.6914699074</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="F8" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="H8" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5856,19 +6470,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44869.576631944401</v>
+        <v>44869.5766319444</v>
       </c>
       <c r="C9" s="1">
-        <v>44965.452013888898</v>
+        <v>44965.4520138889</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -5885,19 +6499,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44869.577037037001</v>
+        <v>44869.577037037</v>
       </c>
       <c r="C10" s="1">
-        <v>44869.679618055503</v>
+        <v>44869.6796180555</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -5914,16 +6528,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44873.394305555601</v>
+        <v>44873.3943055556</v>
       </c>
       <c r="C11" s="1">
-        <v>44873.394305555601</v>
+        <v>44873.3943055556</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F11" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -5940,16 +6554,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44873.394861111097</v>
+        <v>44873.3948611111</v>
       </c>
       <c r="C12" s="1">
-        <v>44873.394861111097</v>
+        <v>44873.3948611111</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -5966,19 +6580,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>44873.397835648102</v>
+        <v>44873.3978356481</v>
       </c>
       <c r="C13" s="1">
-        <v>44873.397835648102</v>
+        <v>44873.3978356481</v>
       </c>
       <c r="E13" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="H13" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -5995,19 +6609,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>44873.404872685198</v>
+        <v>44873.4048726852</v>
       </c>
       <c r="C14" s="1">
-        <v>44873.404872685198</v>
+        <v>44873.4048726852</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="F14" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="H14" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="I14">
         <v>6</v>
@@ -6024,19 +6638,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>44873.948194444398</v>
+        <v>44873.9481944444</v>
       </c>
       <c r="C15" s="1">
-        <v>44873.948194444398</v>
+        <v>44873.9481944444</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="F15" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -6053,19 +6667,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>44873.948611111096</v>
+        <v>44873.9486111111</v>
       </c>
       <c r="C16" s="1">
-        <v>44873.948611111096</v>
+        <v>44873.9486111111</v>
       </c>
       <c r="E16" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="F16" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="G16" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -6082,19 +6696,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>44880.940173611103</v>
+        <v>44880.9401736111</v>
       </c>
       <c r="C17" s="1">
-        <v>44880.940173611103</v>
+        <v>44880.9401736111</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="F17" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="H17" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -6111,19 +6725,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>44880.941412036998</v>
+        <v>44880.941412037</v>
       </c>
       <c r="C18" s="1">
-        <v>44880.941412036998</v>
+        <v>44880.941412037</v>
       </c>
       <c r="E18" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="F18" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H18" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -6146,13 +6760,13 @@
         <v>44882.8044212963</v>
       </c>
       <c r="E19" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="H19" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -6169,22 +6783,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>44882.805381944403</v>
+        <v>44882.8053819444</v>
       </c>
       <c r="C20" s="1">
-        <v>44882.805381944403</v>
+        <v>44882.8053819444</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="F20" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="G20" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -6201,22 +6815,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>44882.805740740703</v>
+        <v>44882.8057407407</v>
       </c>
       <c r="C21" s="1">
-        <v>44882.805740740703</v>
+        <v>44882.8057407407</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="G21" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="H21" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -6233,22 +6847,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>44882.814594907402</v>
+        <v>44882.8145949074</v>
       </c>
       <c r="C22" s="1">
-        <v>44882.814594907402</v>
+        <v>44882.8145949074</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="F22" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="G22" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="H22" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -6265,22 +6879,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>44882.815324074101</v>
+        <v>44882.8153240741</v>
       </c>
       <c r="C23" s="1">
-        <v>44882.815324074101</v>
+        <v>44882.8153240741</v>
       </c>
       <c r="E23" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="F23" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="G23" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="H23" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -6297,22 +6911,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>44882.816689814797</v>
+        <v>44882.8166898148</v>
       </c>
       <c r="C24" s="1">
-        <v>44882.816689814797</v>
+        <v>44882.8166898148</v>
       </c>
       <c r="E24" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="F24" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="G24" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="H24" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -6329,19 +6943,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>44971.954965277801</v>
+        <v>44971.9549652778</v>
       </c>
       <c r="C25" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E25" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="F25" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="G25" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="I25">
         <v>9</v>
@@ -6358,16 +6972,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>44971.955520833297</v>
+        <v>44971.9555208333</v>
       </c>
       <c r="C26" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -6384,19 +6998,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>44971.956076388902</v>
+        <v>44971.9560763889</v>
       </c>
       <c r="C27" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E27" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="F27" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="I27">
         <v>9</v>
@@ -6413,16 +7027,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>44983.917581018497</v>
+        <v>44983.9175810185</v>
       </c>
       <c r="C28" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E28" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="F28" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="I28">
         <v>9</v>
@@ -6439,16 +7053,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C29" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E29" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="I29">
         <v>9</v>
@@ -6465,16 +7079,16 @@
         <v>34</v>
       </c>
       <c r="B30" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C30" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30">
@@ -6492,16 +7106,16 @@
         <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C31" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="G31" s="5"/>
       <c r="I31">
@@ -6519,19 +7133,19 @@
         <v>36</v>
       </c>
       <c r="B32" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C32" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="F32" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="I32">
         <v>10</v>
@@ -6548,16 +7162,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="1">
-        <v>44983.917893518497</v>
+        <v>44983.9178935185</v>
       </c>
       <c r="C33" s="1">
-        <v>44984.409745370402</v>
+        <v>44984.4097453704</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="F33" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="G33" s="5">
         <v>25</v>
@@ -6573,31 +7187,32 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G27" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="G27" r:id="rId1" display="https://kinit.ktianc.top"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="2" max="3" width="18.859375" customWidth="1"/>
+    <col min="4" max="4" width="17.4296875" customWidth="1"/>
+    <col min="5" max="5" width="9.859375" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.2890625" customWidth="1"/>
+    <col min="9" max="9" width="15.2890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -6617,16 +7232,16 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6634,16 +7249,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>44984.656585648103</v>
+        <v>44984.6565856481</v>
       </c>
       <c r="C2" s="1">
-        <v>44984.656585648103</v>
+        <v>44984.6565856481</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
@@ -6669,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -6682,7 +7297,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>